--- a/app_invest.xlsx
+++ b/app_invest.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiog_cdghegb\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09e79d9d7faad5a3/Área de Trabalho/bootcamp_analise_de_dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67877482-E0A5-4A56-8362-9C64F88FB80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{67877482-E0A5-4A56-8362-9C64F88FB80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D72F430-D4CC-461A-8743-938CAEA58AD1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{29ACCF4F-4464-4F61-9C28-95ABF0C0F93E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="0" xr2:uid="{29ACCF4F-4464-4F61-9C28-95ABF0C0F93E}"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
     <sheet name="tbl_apoio" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="aporte">APP!$D$12</definedName>
-    <definedName name="patrimonio">APP!$D$15</definedName>
-    <definedName name="qtd_anos">APP!$D$13</definedName>
-    <definedName name="redimento_carteira">APP!$D$7</definedName>
-    <definedName name="salario">APP!$D$6</definedName>
-    <definedName name="taxa_mensal">APP!$D$14</definedName>
+    <definedName name="aporte">APP!$D$6</definedName>
+    <definedName name="patrimonio">APP!$D$9</definedName>
+    <definedName name="qtd_anos">APP!$D$7</definedName>
+    <definedName name="redimento_carteira">APP!$M$7</definedName>
+    <definedName name="salario">APP!$M$6</definedName>
+    <definedName name="taxa_mensal">APP!$D$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,18 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>INVESTIMENTO MENSAL</t>
   </si>
   <si>
     <t>Quanto investir por mês?</t>
-  </si>
-  <si>
-    <t>Por quantso anos?</t>
-  </si>
-  <si>
-    <t>Qual a taxa de rendimmento mensal?</t>
   </si>
   <si>
     <t>Qual o patrimônio acumulado?</t>
@@ -138,7 +132,19 @@
     <t>Chave Composta</t>
   </si>
   <si>
-    <t>APP Invest</t>
+    <t>Qual a taxa de rendimento mensal?</t>
+  </si>
+  <si>
+    <t>Por quantos anos?</t>
+  </si>
+  <si>
+    <t>Quanto em 25 anos?</t>
+  </si>
+  <si>
+    <t>Quanto em 30 anos?</t>
+  </si>
+  <si>
+    <t>💸 APP Invest 💸</t>
   </si>
 </sst>
 </file>
@@ -148,7 +154,7 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -237,7 +243,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +279,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -437,21 +449,6 @@
       </right>
       <top style="medium">
         <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -481,28 +478,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -626,32 +601,6 @@
       </left>
       <right style="medium">
         <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top style="medium">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -696,171 +645,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -872,25 +687,162 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bom" xfId="2" builtinId="26"/>
+    <cellStyle name="Correto" xfId="2" builtinId="26"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -910,6 +862,1768 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>APP!$B$13:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Quanto em 2 anos?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Quanto em 5 anos?</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Quanto em 10 anos?</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quanto em 15 anos?</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quanto em 20 anos?</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Quanto em 25 anos?</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Quanto em 30 anos?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>APP!$C$13:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40841.440946467825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125665.37099773147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>364926.3187952583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>820467.89470008132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1687797.600145621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3339152.5098573482</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6483254.4825070715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6B6-4622-A6EE-2218403934B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="75543983"/>
+        <c:axId val="75545903"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="75543983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75545903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75545903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="&quot;R$&quot;#,##0.00_);[Red]\(&quot;R$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75543983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>APP!$B$26:$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Papel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tijolo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hibrído</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FOF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Desenvolvimento</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Hotelarias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>APP!$C$26:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9494-4BEA-A67E-C4BA69E17053}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A009530-DCC0-D97B-1EB6-0910F8F40CB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B768D3-26FE-AB43-7D3E-C3E8099710A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1224,355 +2938,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C2181B-4300-492F-AB59-B6D7D3E16800}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
-    <col min="6" max="6" width="3.21875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="2.109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="2.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="47" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.21875" style="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="2.109375" style="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" style="11" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" style="11" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="2" style="11" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="11" customWidth="1"/>
+    <col min="14" max="16" width="8.88671875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="11" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="62" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:17" s="10" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:17" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:17" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="K5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="4">
+        <v>1500</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="8">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="6">
+        <v>1.0789999999999999E-2</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28">
+        <f>M6*30%</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31">
+        <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
+        <v>125665.37099773147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34">
+        <f>patrimonio*redimento_carteira</f>
+        <v>1118.4218018798101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:17" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="38">
+        <v>2</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="40">
+        <f>FV($D$8,$A13*12,$D$6*-1)</f>
+        <v>40841.440946467825</v>
+      </c>
+      <c r="D13" s="41">
+        <f>C13*redimento_carteira</f>
+        <v>363.48882442356364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="38">
+        <v>5</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="40">
+        <f t="shared" ref="C14:C23" si="0">FV($D$8,$A14*12,$D$6*-1)</f>
+        <v>125665.37099773147</v>
+      </c>
+      <c r="D14" s="41">
+        <f>C14*redimento_carteira</f>
+        <v>1118.4218018798101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="38">
+        <v>10</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="40">
+        <f t="shared" si="0"/>
+        <v>364926.3187952583</v>
+      </c>
+      <c r="D15" s="41">
+        <f>C15*redimento_carteira</f>
+        <v>3247.8442372777986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="38">
+        <v>15</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="40">
+        <f t="shared" si="0"/>
+        <v>820467.89470008132</v>
+      </c>
+      <c r="D16" s="41">
+        <f>C16*redimento_carteira</f>
+        <v>7302.1642628307236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="38">
+        <v>20</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="40">
+        <f t="shared" si="0"/>
+        <v>1687797.600145621</v>
+      </c>
+      <c r="D17" s="41">
+        <f>C17*redimento_carteira</f>
+        <v>15021.398641296028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="38">
+        <v>25</v>
+      </c>
+      <c r="B18" s="42" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:4" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="68">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="69">
-        <v>8.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15" t="s">
+      <c r="C18" s="40">
+        <f t="shared" si="0"/>
+        <v>3339152.5098573482</v>
+      </c>
+      <c r="D18" s="41">
+        <f>C18*redimento_carteira</f>
+        <v>29718.457337730397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="38">
+        <v>30</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="44">
+        <f>FV($D$8,$A19*12,$D$6*-1)</f>
+        <v>6483254.4825070715</v>
+      </c>
+      <c r="D19" s="45">
+        <f>C19*redimento_carteira</f>
+        <v>57700.964894312936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B22" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17">
-        <f>D6*30%</f>
+      <c r="D22" s="48"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="50">
+        <f>aporte</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="63">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="65">
-        <v>1.0789999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="26">
-        <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
-        <v>41888.456999243819</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="27">
-        <f>patrimonio*redimento_carteira</f>
-        <v>372.80726729327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:4" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="29">
-        <f>FV($D$14,$A20*12,$D$12*-1)</f>
-        <v>13613.813648822608</v>
-      </c>
-      <c r="D20" s="30">
-        <f>C20*redimento_carteira</f>
-        <v>121.16294147452122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>5</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="29">
-        <f>FV($D$14,$A21*12,$D$12*-1)</f>
-        <v>41888.456999243819</v>
-      </c>
-      <c r="D21" s="30">
-        <f>C21*redimento_carteira</f>
-        <v>372.80726729327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>10</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="46">
-        <f>FV($D$14,$A22*12,$D$12*-1)</f>
-        <v>121642.1062650861</v>
-      </c>
-      <c r="D22" s="30">
-        <f>C22*redimento_carteira</f>
-        <v>1082.6147457592663</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>15</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="29">
-        <f>FV($D$14,$A23*12,$D$12*-1)</f>
-        <v>273489.29823336046</v>
-      </c>
-      <c r="D23" s="30">
-        <f>C23*redimento_carteira</f>
-        <v>2434.0547542769082</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="32">
-        <f>FV($D$14,$A24*12,$D$12*-1)</f>
-        <v>562599.20004854025</v>
-      </c>
-      <c r="D24" s="33">
-        <f>C24*redimento_carteira</f>
-        <v>5007.1328804320083</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B27" s="39" t="s">
+      <c r="D23" s="51"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="52"/>
+    </row>
+    <row r="25" spans="1:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="67"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="57">
+        <f>VLOOKUP($C$22&amp;"-"&amp;B26,tbl_apoio!$A:$D,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="58">
+        <f>C26*$C$23</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="60">
+        <f>VLOOKUP($C$22&amp;"-"&amp;B27,tbl_apoio!$A:$D,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="61">
+        <f>C27*$C$23</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="59" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C28" s="60">
-        <f>aporte</f>
-        <v>500</v>
-      </c>
-      <c r="D28" s="61"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="40" t="s">
+        <f>VLOOKUP($C$22&amp;"-"&amp;B28,tbl_apoio!$A:$D,4,FALSE)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D28" s="61">
+        <f>C28*$C$23</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="51">
-        <f>VLOOKUP($C$27&amp;"-"&amp;B32,tbl_apoio!$A:$D,4,FALSE)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="52">
-        <f>C32*$C$28</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="54">
-        <f>VLOOKUP($C$27&amp;"-"&amp;B33,tbl_apoio!$A:$D,4,FALSE)</f>
+      <c r="C29" s="60">
+        <f>VLOOKUP($C$22&amp;"-"&amp;B29,tbl_apoio!$A:$D,4,FALSE)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D29" s="61">
+        <f>C29*$C$23</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="60">
+        <f>VLOOKUP($C$22&amp;"-"&amp;B30,tbl_apoio!$A:$D,4,FALSE)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D30" s="61">
+        <f>C30*$C$23</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="63">
+        <f>VLOOKUP($C$22&amp;"-"&amp;B31,tbl_apoio!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D33" s="55">
-        <f t="shared" ref="D33:D37" si="0">C33*$C$28</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="54">
-        <f>VLOOKUP($C$27&amp;"-"&amp;B34,tbl_apoio!$A:$D,4,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="D34" s="55">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="54">
-        <f>VLOOKUP($C$27&amp;"-"&amp;B35,tbl_apoio!$A:$D,4,FALSE)</f>
-        <v>0.05</v>
-      </c>
-      <c r="D35" s="55">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="54">
-        <f>VLOOKUP($C$27&amp;"-"&amp;B36,tbl_apoio!$A:$D,4,FALSE)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D36" s="55">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="57">
-        <f>VLOOKUP($C$27&amp;"-"&amp;B37,tbl_apoio!$A:$D,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D37" s="58">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-    </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="D31" s="28">
+        <f>C31*$C$23</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="33" x14ac:dyDescent="0.3"/>
+    <row r="49" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27" xr:uid="{A64DAF89-ED01-4197-8E8B-5FF8E2487193}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22" xr:uid="{A64DAF89-ED01-4197-8E8B-5FF8E2487193}">
       <formula1>"Agressivo, Moderado, Conservador"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1581,7 +3342,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="A1:D19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1593,16 +3354,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1611,27 +3372,27 @@
         <v>Conservador-Papel</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="34">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A19" si="0">$B$2&amp;"-"&amp;C3</f>
+        <f t="shared" ref="A3:A7" si="0">$B$2&amp;"-"&amp;C3</f>
         <v>Conservador-Tijolo</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="34">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.5</v>
       </c>
     </row>
@@ -1641,12 +3402,12 @@
         <v>Conservador-Hibrído</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="34">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -1656,12 +3417,12 @@
         <v>Conservador-FOF</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="34">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -1671,207 +3432,207 @@
         <v>Conservador-Desenvolvimento</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="34">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="str">
+      <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-Hotelarias</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="38">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="str">
+      <c r="A8" t="str">
         <f>$B$8&amp;"-"&amp;C8</f>
         <v>Moderado-Papel</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="36">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="str">
-        <f t="shared" ref="A9:A19" si="1">$B$8&amp;"-"&amp;C9</f>
+      <c r="A9" t="str">
+        <f t="shared" ref="A9:A13" si="1">$B$8&amp;"-"&amp;C9</f>
         <v>Moderado-Tijolo</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="36">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="str">
+      <c r="A10" t="str">
         <f t="shared" si="1"/>
         <v>Moderado-Hibrído</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="36">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.08</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="str">
+      <c r="A11" t="str">
         <f t="shared" si="1"/>
         <v>Moderado-FOF</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="36">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="str">
+      <c r="A12" t="str">
         <f t="shared" si="1"/>
         <v>Moderado-Desenvolvimento</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="36">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37" t="str">
+      <c r="A13" t="str">
         <f t="shared" si="1"/>
         <v>Moderado-Hotelarias</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="38">
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="str">
+      <c r="A14" t="str">
         <f>$B$14&amp;"-"&amp;C14</f>
         <v>Agressivo-Papel</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="34">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="str">
+      <c r="A15" t="str">
         <f t="shared" ref="A15:A19" si="2">$B$14&amp;"-"&amp;C15</f>
         <v>Agressivo-Tijolo</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="34">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="str">
+      <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>Agressivo-Hibrído</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="34">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="str">
+      <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>Agressivo-FOF</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="34">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="str">
+      <c r="A18" t="str">
         <f t="shared" si="2"/>
         <v>Agressivo-Desenvolvimento</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="34">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="str">
+      <c r="A19" t="str">
         <f t="shared" si="2"/>
         <v>Agressivo-Hotelarias</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="34">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1">
         <v>0.1</v>
       </c>
     </row>

--- a/app_invest.xlsx
+++ b/app_invest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09e79d9d7faad5a3/Área de Trabalho/bootcamp_analise_de_dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{67877482-E0A5-4A56-8362-9C64F88FB80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D72F430-D4CC-461A-8743-938CAEA58AD1}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{67877482-E0A5-4A56-8362-9C64F88FB80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B37D42AF-F83D-4D47-B2A2-112F850C99FC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="0" xr2:uid="{29ACCF4F-4464-4F61-9C28-95ABF0C0F93E}"/>
   </bookViews>
@@ -666,7 +666,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,149 +695,150 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="5" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="8" fontId="5" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1168,6 +1169,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7F58-4F95-AD40-49D60CFFF84F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1183,6 +1189,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7F58-4F95-AD40-49D60CFFF84F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1198,6 +1209,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7F58-4F95-AD40-49D60CFFF84F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1213,6 +1229,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7F58-4F95-AD40-49D60CFFF84F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1228,6 +1249,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7F58-4F95-AD40-49D60CFFF84F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1243,6 +1269,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7F58-4F95-AD40-49D60CFFF84F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2946,369 +2977,369 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="47" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="3.21875" style="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="2.109375" style="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="2.33203125" style="11" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="2" style="11" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="22.109375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="11" customWidth="1"/>
-    <col min="14" max="16" width="8.88671875" style="11" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="11" hidden="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="3.21875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="2.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="16" width="8.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.88671875" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" s="9" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:17" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:17" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="K5" s="15" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="K5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="4">
         <v>1500</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="21"/>
+      <c r="L6" s="38"/>
       <c r="M6" s="7">
         <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="5">
         <v>5</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="25"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="8">
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="6">
         <v>1.0789999999999999E-2</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28">
+      <c r="L8" s="42"/>
+      <c r="M8" s="12">
         <f>M6*30%</f>
         <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31">
+      <c r="C9" s="53"/>
+      <c r="D9" s="13">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
         <v>125665.37099773147</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34">
+      <c r="C10" s="55"/>
+      <c r="D10" s="14">
         <f>patrimonio*redimento_carteira</f>
         <v>1118.4218018798101</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:17" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="47"/>
+      <c r="D12" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38">
+      <c r="A13" s="16">
         <v>2</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="17">
         <f>FV($D$8,$A13*12,$D$6*-1)</f>
         <v>40841.440946467825</v>
       </c>
-      <c r="D13" s="41">
-        <f>C13*redimento_carteira</f>
+      <c r="D13" s="18">
+        <f t="shared" ref="D13:D19" si="0">C13*redimento_carteira</f>
         <v>363.48882442356364</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38">
+      <c r="A14" s="16">
         <v>5</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="40">
-        <f t="shared" ref="C14:C23" si="0">FV($D$8,$A14*12,$D$6*-1)</f>
+      <c r="C14" s="17">
+        <f t="shared" ref="C14:C18" si="1">FV($D$8,$A14*12,$D$6*-1)</f>
         <v>125665.37099773147</v>
       </c>
-      <c r="D14" s="41">
-        <f>C14*redimento_carteira</f>
+      <c r="D14" s="18">
+        <f t="shared" si="0"/>
         <v>1118.4218018798101</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38">
+      <c r="A15" s="16">
         <v>10</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="17">
+        <f t="shared" si="1"/>
+        <v>364926.3187952583</v>
+      </c>
+      <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>364926.3187952583</v>
-      </c>
-      <c r="D15" s="41">
-        <f>C15*redimento_carteira</f>
         <v>3247.8442372777986</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="17">
+        <f t="shared" si="1"/>
+        <v>820467.89470008132</v>
+      </c>
+      <c r="D16" s="18">
         <f t="shared" si="0"/>
-        <v>820467.89470008132</v>
-      </c>
-      <c r="D16" s="41">
-        <f>C16*redimento_carteira</f>
         <v>7302.1642628307236</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38">
+      <c r="A17" s="16">
         <v>20</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="17">
+        <f t="shared" si="1"/>
+        <v>1687797.600145621</v>
+      </c>
+      <c r="D17" s="18">
         <f t="shared" si="0"/>
-        <v>1687797.600145621</v>
-      </c>
-      <c r="D17" s="41">
-        <f>C17*redimento_carteira</f>
         <v>15021.398641296028</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38">
+      <c r="A18" s="16">
         <v>25</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="17">
+        <f t="shared" si="1"/>
+        <v>3339152.5098573482</v>
+      </c>
+      <c r="D18" s="18">
         <f t="shared" si="0"/>
-        <v>3339152.5098573482</v>
-      </c>
-      <c r="D18" s="41">
-        <f>C18*redimento_carteira</f>
         <v>29718.457337730397</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38">
+      <c r="A19" s="16">
         <v>30</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="20">
         <f>FV($D$8,$A19*12,$D$6*-1)</f>
         <v>6483254.4825070715</v>
       </c>
-      <c r="D19" s="45">
-        <f>C19*redimento_carteira</f>
+      <c r="D19" s="21">
+        <f t="shared" si="0"/>
         <v>57700.964894312936</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="60"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="61">
         <f>aporte</f>
         <v>1500</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="62"/>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
+      <c r="A24" s="24"/>
     </row>
     <row r="25" spans="1:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="29">
         <f>VLOOKUP($C$22&amp;"-"&amp;B26,tbl_apoio!$A:$D,4,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="D26" s="58">
-        <f>C26*$C$23</f>
+      <c r="D26" s="30">
+        <f t="shared" ref="D26:D31" si="2">C26*$C$23</f>
         <v>750</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C27" s="32">
         <f>VLOOKUP($C$22&amp;"-"&amp;B27,tbl_apoio!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D27" s="61">
-        <f>C27*$C$23</f>
+      <c r="D27" s="33">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="60">
+      <c r="C28" s="32">
         <f>VLOOKUP($C$22&amp;"-"&amp;B28,tbl_apoio!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D28" s="61">
-        <f>C28*$C$23</f>
+      <c r="D28" s="33">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="32">
         <f>VLOOKUP($C$22&amp;"-"&amp;B29,tbl_apoio!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D29" s="61">
-        <f>C29*$C$23</f>
+      <c r="D29" s="33">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="60">
+      <c r="C30" s="32">
         <f>VLOOKUP($C$22&amp;"-"&amp;B30,tbl_apoio!$A:$D,4,FALSE)</f>
         <v>0.2</v>
       </c>
-      <c r="D30" s="61">
-        <f>C30*$C$23</f>
+      <c r="D30" s="33">
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="63">
+      <c r="C31" s="35">
         <f>VLOOKUP($C$22&amp;"-"&amp;B31,tbl_apoio!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D31" s="28">
-        <f>C31*$C$23</f>
+      <c r="D31" s="12">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3"/>
     <row r="33" x14ac:dyDescent="0.3"/>
-    <row r="49" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="14">
@@ -3333,7 +3364,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
